--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db3479d4fce3ea86/Masters/Thesis/hukm_scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC1048ED019C50845ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235C1D1C-CE11-49DF-9DDA-45F55DA9B25F}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="11_F25DC773A252ABDACC1048ED019C50845ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544CB055-BEFE-40BA-8AB2-00AE4A930F33}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33240" yWindow="1695" windowWidth="21030" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,36 +39,6 @@
     <t>nurses</t>
   </si>
   <si>
-    <t>Azatuliana</t>
-  </si>
-  <si>
-    <t>Fatehah</t>
-  </si>
-  <si>
-    <t>Fatimah</t>
-  </si>
-  <si>
-    <t>Fazilawati</t>
-  </si>
-  <si>
-    <t>Mimi</t>
-  </si>
-  <si>
-    <t>Nuraimi</t>
-  </si>
-  <si>
-    <t>Sariah</t>
-  </si>
-  <si>
-    <t>Sitisakinah</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Wahidah</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -88,6 +58,36 @@
   </si>
   <si>
     <t>AMS</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J10</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,262 +468,262 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
